--- a/لیست اسپلیت یونیت ها جهت ثبت در پارسه.xlsx
+++ b/لیست اسپلیت یونیت ها جهت ثبت در پارسه.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haddadnia\Documents\GitHub\RCM_data_concatinating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3380B76-85F2-4DED-8051-189E7E287E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D23EBEE-7410-40F1-A24B-324935AE5D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE6D2F94-0AA5-4BDD-A7E2-EA18DE020333}"/>
   </bookViews>
@@ -1803,7 +1803,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1922,6 +1922,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1998,7 +2006,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2057,12 +2065,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2070,6 +2072,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2081,12 +2089,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{7AC5CB9D-9E40-4715-BE8C-E6A36854FF4F}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2396,11 +2419,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78112C92-5259-4973-AFB3-213A8191957B}">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:M295"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A277" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="E292" sqref="E292:H295"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2466,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4"/>
@@ -2493,7 +2516,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="4"/>
@@ -2522,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="28" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="4"/>
@@ -2551,7 +2574,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4"/>
@@ -2580,7 +2603,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="28" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="4"/>
@@ -2609,7 +2632,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="28" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="4"/>
@@ -2638,7 +2661,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="4"/>
@@ -2667,7 +2690,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="8"/>
@@ -2696,7 +2719,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="29" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="8"/>
@@ -2727,7 +2750,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="28" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="4"/>
@@ -2756,7 +2779,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="4"/>
@@ -2785,7 +2808,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="28" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="4"/>
@@ -2809,7 +2832,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="7" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2840,7 +2863,7 @@
       </c>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="7" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2871,7 +2894,7 @@
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="7" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2902,7 +2925,7 @@
       </c>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="7" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2927,7 +2950,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="7" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2952,7 +2975,7 @@
       <c r="L18" s="8"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="7" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2981,7 +3004,7 @@
       </c>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="7" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3010,7 +3033,7 @@
       </c>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="7" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3039,7 +3062,7 @@
       </c>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="7" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3068,7 +3091,7 @@
       </c>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="7" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3097,7 +3120,7 @@
       </c>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="7" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3124,7 +3147,7 @@
       <c r="L24" s="8"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="7" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3149,7 +3172,7 @@
       <c r="L25" s="8"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="7" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3178,7 +3201,7 @@
       </c>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="7" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3205,7 +3228,7 @@
       <c r="L27" s="8"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="7" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3232,7 +3255,7 @@
       </c>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="7" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3261,7 +3284,7 @@
       </c>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="7" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3290,7 +3313,7 @@
       </c>
       <c r="M30" s="16"/>
     </row>
-    <row r="31" spans="1:13" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="7" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3319,7 +3342,7 @@
       </c>
       <c r="M31" s="16"/>
     </row>
-    <row r="32" spans="1:13" s="7" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="7" customFormat="1" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3348,7 +3371,7 @@
       </c>
       <c r="M32" s="16"/>
     </row>
-    <row r="33" spans="1:13" s="7" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" s="7" customFormat="1" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3377,7 +3400,7 @@
       </c>
       <c r="M33" s="16"/>
     </row>
-    <row r="34" spans="1:13" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" s="7" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3406,7 +3429,7 @@
       </c>
       <c r="M34" s="16"/>
     </row>
-    <row r="35" spans="1:13" s="7" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="7" customFormat="1" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3435,7 +3458,7 @@
       </c>
       <c r="M35" s="16"/>
     </row>
-    <row r="36" spans="1:13" s="7" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="7" customFormat="1" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3464,7 +3487,7 @@
       </c>
       <c r="M36" s="16"/>
     </row>
-    <row r="37" spans="1:13" s="7" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" s="7" customFormat="1" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3493,7 +3516,7 @@
       </c>
       <c r="M37" s="16"/>
     </row>
-    <row r="38" spans="1:13" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="7" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3522,7 +3545,7 @@
       </c>
       <c r="M38" s="16"/>
     </row>
-    <row r="39" spans="1:13" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" s="7" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3551,7 +3574,7 @@
       </c>
       <c r="M39" s="16"/>
     </row>
-    <row r="40" spans="1:13" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" s="7" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -3580,7 +3603,7 @@
       </c>
       <c r="M40" s="16"/>
     </row>
-    <row r="41" spans="1:13" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" s="7" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -3609,7 +3632,7 @@
       </c>
       <c r="M41" s="16"/>
     </row>
-    <row r="42" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -3640,7 +3663,7 @@
       </c>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -3671,7 +3694,7 @@
       </c>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -3696,7 +3719,7 @@
       <c r="L44" s="8"/>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -3727,7 +3750,7 @@
       </c>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -3758,7 +3781,7 @@
       </c>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -3783,7 +3806,7 @@
       <c r="L47" s="8"/>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -3814,7 +3837,7 @@
       </c>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -3845,7 +3868,7 @@
       </c>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -3870,7 +3893,7 @@
       <c r="L50" s="8"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -3901,7 +3924,7 @@
       </c>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -3932,7 +3955,7 @@
       </c>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -3961,7 +3984,7 @@
       </c>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -3992,7 +4015,7 @@
       </c>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -4023,7 +4046,7 @@
       </c>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -4048,7 +4071,7 @@
       <c r="L56" s="8"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -4079,7 +4102,7 @@
       </c>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -4110,7 +4133,7 @@
       </c>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -4137,7 +4160,7 @@
       <c r="L59" s="8"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -4168,7 +4191,7 @@
       </c>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -4199,7 +4222,7 @@
       </c>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -4228,7 +4251,7 @@
       </c>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -4257,7 +4280,7 @@
       </c>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -4284,7 +4307,7 @@
       <c r="L64" s="8"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -4313,7 +4336,7 @@
       </c>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -4340,7 +4363,7 @@
       <c r="L66" s="8"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -4367,7 +4390,7 @@
       <c r="L67" s="8"/>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -4398,7 +4421,7 @@
       </c>
       <c r="M68" s="16"/>
     </row>
-    <row r="69" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -4429,7 +4452,7 @@
       </c>
       <c r="M69" s="16"/>
     </row>
-    <row r="70" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -4458,7 +4481,7 @@
       </c>
       <c r="M70" s="16"/>
     </row>
-    <row r="71" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -4489,7 +4512,7 @@
       </c>
       <c r="M71" s="16"/>
     </row>
-    <row r="72" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -4514,7 +4537,7 @@
       <c r="L72" s="15"/>
       <c r="M72" s="16"/>
     </row>
-    <row r="73" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -4545,7 +4568,7 @@
       </c>
       <c r="M73" s="12"/>
     </row>
-    <row r="74" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -4576,7 +4599,7 @@
       </c>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -4607,7 +4630,7 @@
       </c>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -4638,7 +4661,7 @@
       </c>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -4669,7 +4692,7 @@
       </c>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -4700,7 +4723,7 @@
       </c>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -4731,7 +4754,7 @@
       </c>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -4762,7 +4785,7 @@
       </c>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -4793,7 +4816,7 @@
       </c>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -4824,7 +4847,7 @@
       </c>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -4853,7 +4876,7 @@
       </c>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -4882,7 +4905,7 @@
       </c>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -4911,7 +4934,7 @@
       </c>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -4940,7 +4963,7 @@
       </c>
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -4969,7 +4992,7 @@
       </c>
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -4998,7 +5021,7 @@
       </c>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -5027,7 +5050,7 @@
       </c>
       <c r="M89" s="12"/>
     </row>
-    <row r="90" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -5056,7 +5079,7 @@
       </c>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -5085,7 +5108,7 @@
       </c>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -5114,7 +5137,7 @@
       </c>
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -5145,7 +5168,7 @@
       </c>
       <c r="M93" s="12"/>
     </row>
-    <row r="94" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -5174,7 +5197,7 @@
       </c>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -5203,7 +5226,7 @@
       </c>
       <c r="M95" s="12"/>
     </row>
-    <row r="96" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -5234,7 +5257,7 @@
       </c>
       <c r="M96" s="12"/>
     </row>
-    <row r="97" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -5263,7 +5286,7 @@
       </c>
       <c r="M97" s="12"/>
     </row>
-    <row r="98" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -5292,7 +5315,7 @@
       </c>
       <c r="M98" s="12"/>
     </row>
-    <row r="99" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -5321,7 +5344,7 @@
       </c>
       <c r="M99" s="12"/>
     </row>
-    <row r="100" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -5350,7 +5373,7 @@
       </c>
       <c r="M100" s="12"/>
     </row>
-    <row r="101" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -5381,7 +5404,7 @@
       </c>
       <c r="M101" s="12"/>
     </row>
-    <row r="102" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -5410,7 +5433,7 @@
       </c>
       <c r="M102" s="12"/>
     </row>
-    <row r="103" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -5441,7 +5464,7 @@
       </c>
       <c r="M103" s="12"/>
     </row>
-    <row r="104" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -5470,7 +5493,7 @@
       </c>
       <c r="M104" s="12"/>
     </row>
-    <row r="105" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -5499,7 +5522,7 @@
       </c>
       <c r="M105" s="12"/>
     </row>
-    <row r="106" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -5530,7 +5553,7 @@
       </c>
       <c r="M106" s="12"/>
     </row>
-    <row r="107" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -5561,7 +5584,7 @@
       </c>
       <c r="M107" s="12"/>
     </row>
-    <row r="108" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -5592,7 +5615,7 @@
       </c>
       <c r="M108" s="12"/>
     </row>
-    <row r="109" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -5623,7 +5646,7 @@
       </c>
       <c r="M109" s="12"/>
     </row>
-    <row r="110" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -5652,7 +5675,7 @@
       <c r="L110" s="8"/>
       <c r="M110" s="12"/>
     </row>
-    <row r="111" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -5679,7 +5702,7 @@
       <c r="L111" s="8"/>
       <c r="M111" s="12"/>
     </row>
-    <row r="112" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -5708,7 +5731,7 @@
       <c r="L112" s="8"/>
       <c r="M112" s="12"/>
     </row>
-    <row r="113" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -5737,7 +5760,7 @@
       <c r="L113" s="12"/>
       <c r="M113" s="12"/>
     </row>
-    <row r="114" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -5764,7 +5787,7 @@
       <c r="L114" s="12"/>
       <c r="M114" s="12"/>
     </row>
-    <row r="115" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -5791,7 +5814,7 @@
       <c r="L115" s="12"/>
       <c r="M115" s="12"/>
     </row>
-    <row r="116" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -5822,7 +5845,7 @@
       </c>
       <c r="M116" s="12"/>
     </row>
-    <row r="117" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -5853,7 +5876,7 @@
       </c>
       <c r="M117" s="12"/>
     </row>
-    <row r="118" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -5884,7 +5907,7 @@
       </c>
       <c r="M118" s="12"/>
     </row>
-    <row r="119" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -5915,7 +5938,7 @@
       </c>
       <c r="M119" s="12"/>
     </row>
-    <row r="120" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -5946,7 +5969,7 @@
       </c>
       <c r="M120" s="12"/>
     </row>
-    <row r="121" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -5975,7 +5998,7 @@
       </c>
       <c r="M121" s="12"/>
     </row>
-    <row r="122" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -6004,7 +6027,7 @@
       </c>
       <c r="M122" s="12"/>
     </row>
-    <row r="123" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -6033,7 +6056,7 @@
       </c>
       <c r="M123" s="12"/>
     </row>
-    <row r="124" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -6060,7 +6083,7 @@
       <c r="L124" s="12"/>
       <c r="M124" s="12"/>
     </row>
-    <row r="125" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -6091,7 +6114,7 @@
       </c>
       <c r="M125" s="12"/>
     </row>
-    <row r="126" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -6122,7 +6145,7 @@
       </c>
       <c r="M126" s="12"/>
     </row>
-    <row r="127" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -6151,7 +6174,7 @@
       </c>
       <c r="M127" s="12"/>
     </row>
-    <row r="128" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -6180,7 +6203,7 @@
       </c>
       <c r="M128" s="12"/>
     </row>
-    <row r="129" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -6209,7 +6232,7 @@
       </c>
       <c r="M129" s="12"/>
     </row>
-    <row r="130" spans="1:13" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" s="17" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -6238,7 +6261,7 @@
       <c r="L130" s="12"/>
       <c r="M130" s="12"/>
     </row>
-    <row r="131" spans="1:13" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" s="17" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -6267,7 +6290,7 @@
       <c r="L131" s="12"/>
       <c r="M131" s="12"/>
     </row>
-    <row r="132" spans="1:13" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" s="17" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -6298,7 +6321,7 @@
       </c>
       <c r="M132" s="12"/>
     </row>
-    <row r="133" spans="1:13" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" s="17" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -6329,7 +6352,7 @@
       </c>
       <c r="M133" s="12"/>
     </row>
-    <row r="134" spans="1:13" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" s="17" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -6358,7 +6381,7 @@
       </c>
       <c r="M134" s="12"/>
     </row>
-    <row r="135" spans="1:13" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" s="17" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -6385,7 +6408,7 @@
       <c r="L135" s="8"/>
       <c r="M135" s="12"/>
     </row>
-    <row r="136" spans="1:13" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" s="17" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -6417,7 +6440,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="4"/>
-      <c r="C137" s="4" t="s">
+      <c r="C137" s="28" t="s">
         <v>300</v>
       </c>
       <c r="D137" s="4"/>
@@ -6446,7 +6469,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="4"/>
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="28" t="s">
         <v>303</v>
       </c>
       <c r="D138" s="4"/>
@@ -6475,7 +6498,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="4"/>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="28" t="s">
         <v>306</v>
       </c>
       <c r="D139" s="4"/>
@@ -6500,7 +6523,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="4"/>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="28" t="s">
         <v>308</v>
       </c>
       <c r="D140" s="4"/>
@@ -6529,7 +6552,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="4"/>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="28" t="s">
         <v>310</v>
       </c>
       <c r="D141" s="4"/>
@@ -6554,7 +6577,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="4"/>
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="28" t="s">
         <v>311</v>
       </c>
       <c r="D142" s="4"/>
@@ -6583,7 +6606,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="4"/>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="28" t="s">
         <v>314</v>
       </c>
       <c r="D143" s="4"/>
@@ -6612,7 +6635,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="4"/>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="28" t="s">
         <v>316</v>
       </c>
       <c r="D144" s="4"/>
@@ -6641,7 +6664,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="4"/>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="28" t="s">
         <v>319</v>
       </c>
       <c r="D145" s="4"/>
@@ -6670,7 +6693,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="4"/>
-      <c r="C146" s="4" t="s">
+      <c r="C146" s="28" t="s">
         <v>323</v>
       </c>
       <c r="D146" s="4"/>
@@ -6699,7 +6722,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="4"/>
-      <c r="C147" s="8" t="s">
+      <c r="C147" s="29" t="s">
         <v>326</v>
       </c>
       <c r="D147" s="8"/>
@@ -6728,7 +6751,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="4"/>
-      <c r="C148" s="8" t="s">
+      <c r="C148" s="29" t="s">
         <v>329</v>
       </c>
       <c r="D148" s="8"/>
@@ -6757,7 +6780,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="4"/>
-      <c r="C149" s="8" t="s">
+      <c r="C149" s="29" t="s">
         <v>332</v>
       </c>
       <c r="D149" s="8"/>
@@ -6784,7 +6807,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="4"/>
-      <c r="C150" s="8" t="s">
+      <c r="C150" s="29" t="s">
         <v>333</v>
       </c>
       <c r="D150" s="8"/>
@@ -6811,7 +6834,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="4"/>
-      <c r="C151" s="8" t="s">
+      <c r="C151" s="29" t="s">
         <v>335</v>
       </c>
       <c r="D151" s="8"/>
@@ -6838,7 +6861,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="4"/>
-      <c r="C152" s="8" t="s">
+      <c r="C152" s="29" t="s">
         <v>339</v>
       </c>
       <c r="D152" s="8"/>
@@ -6860,7 +6883,7 @@
       <c r="L152" s="12"/>
       <c r="M152" s="11"/>
     </row>
-    <row r="153" spans="1:13" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" s="17" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -6887,7 +6910,7 @@
       </c>
       <c r="M153" s="6"/>
     </row>
-    <row r="154" spans="1:13" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" s="17" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -6916,7 +6939,7 @@
       </c>
       <c r="M154" s="6"/>
     </row>
-    <row r="155" spans="1:13" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" s="17" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -6950,7 +6973,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="4"/>
-      <c r="C156" s="4" t="s">
+      <c r="C156" s="28" t="s">
         <v>347</v>
       </c>
       <c r="D156" s="4"/>
@@ -6979,7 +7002,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="4"/>
-      <c r="C157" s="4" t="s">
+      <c r="C157" s="28" t="s">
         <v>349</v>
       </c>
       <c r="D157" s="4"/>
@@ -7001,7 +7024,7 @@
       <c r="L157" s="12"/>
       <c r="M157" s="12"/>
     </row>
-    <row r="158" spans="1:13" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" s="17" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -7030,7 +7053,7 @@
       </c>
       <c r="M158" s="6"/>
     </row>
-    <row r="159" spans="1:13" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" s="17" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -7059,7 +7082,7 @@
       </c>
       <c r="M159" s="6"/>
     </row>
-    <row r="160" spans="1:13" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" s="17" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -7088,7 +7111,7 @@
       </c>
       <c r="M160" s="6"/>
     </row>
-    <row r="161" spans="1:13" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" s="17" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -7117,7 +7140,7 @@
       </c>
       <c r="M161" s="11"/>
     </row>
-    <row r="162" spans="1:13" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" s="17" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -7146,7 +7169,7 @@
       </c>
       <c r="M162" s="12"/>
     </row>
-    <row r="163" spans="1:13" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" s="17" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -7175,7 +7198,7 @@
       </c>
       <c r="M163" s="12"/>
     </row>
-    <row r="164" spans="1:13" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" s="17" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -7204,7 +7227,7 @@
       </c>
       <c r="M164" s="12"/>
     </row>
-    <row r="165" spans="1:13" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" s="17" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -7233,7 +7256,7 @@
       </c>
       <c r="M165" s="12"/>
     </row>
-    <row r="166" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -7262,7 +7285,7 @@
       </c>
       <c r="M166" s="12"/>
     </row>
-    <row r="167" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -7291,7 +7314,7 @@
       </c>
       <c r="M167" s="12"/>
     </row>
-    <row r="168" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -7320,7 +7343,7 @@
       </c>
       <c r="M168" s="12"/>
     </row>
-    <row r="169" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -7349,7 +7372,7 @@
       </c>
       <c r="M169" s="12"/>
     </row>
-    <row r="170" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -7378,7 +7401,7 @@
       </c>
       <c r="M170" s="12"/>
     </row>
-    <row r="171" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -7407,7 +7430,7 @@
       </c>
       <c r="M171" s="12"/>
     </row>
-    <row r="172" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -7436,7 +7459,7 @@
       </c>
       <c r="M172" s="12"/>
     </row>
-    <row r="173" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -7465,7 +7488,7 @@
       </c>
       <c r="M173" s="12"/>
     </row>
-    <row r="174" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -7494,7 +7517,7 @@
       </c>
       <c r="M174" s="12"/>
     </row>
-    <row r="175" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -7523,7 +7546,7 @@
       </c>
       <c r="M175" s="12"/>
     </row>
-    <row r="176" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -7552,7 +7575,7 @@
       </c>
       <c r="M176" s="12"/>
     </row>
-    <row r="177" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -7581,7 +7604,7 @@
       </c>
       <c r="M177" s="12"/>
     </row>
-    <row r="178" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -7610,7 +7633,7 @@
       </c>
       <c r="M178" s="12"/>
     </row>
-    <row r="179" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -7639,7 +7662,7 @@
       </c>
       <c r="M179" s="12"/>
     </row>
-    <row r="180" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -7668,7 +7691,7 @@
       </c>
       <c r="M180" s="12"/>
     </row>
-    <row r="181" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -7697,7 +7720,7 @@
       </c>
       <c r="M181" s="12"/>
     </row>
-    <row r="182" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>181</v>
       </c>
@@ -7728,7 +7751,7 @@
       </c>
       <c r="M182" s="12"/>
     </row>
-    <row r="183" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -7753,7 +7776,7 @@
       <c r="L183" s="4"/>
       <c r="M183" s="4"/>
     </row>
-    <row r="184" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>183</v>
       </c>
@@ -7782,7 +7805,7 @@
       </c>
       <c r="M184" s="12"/>
     </row>
-    <row r="185" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -7807,7 +7830,7 @@
       <c r="L185" s="4"/>
       <c r="M185" s="4"/>
     </row>
-    <row r="186" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -7836,7 +7859,7 @@
       </c>
       <c r="M186" s="12"/>
     </row>
-    <row r="187" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -7861,7 +7884,7 @@
       <c r="L187" s="4"/>
       <c r="M187" s="4"/>
     </row>
-    <row r="188" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>187</v>
       </c>
@@ -7890,7 +7913,7 @@
       </c>
       <c r="M188" s="12"/>
     </row>
-    <row r="189" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -7915,7 +7938,7 @@
       <c r="L189" s="4"/>
       <c r="M189" s="4"/>
     </row>
-    <row r="190" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>189</v>
       </c>
@@ -7944,7 +7967,7 @@
       </c>
       <c r="M190" s="12"/>
     </row>
-    <row r="191" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -7969,7 +7992,7 @@
       <c r="L191" s="4"/>
       <c r="M191" s="4"/>
     </row>
-    <row r="192" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>191</v>
       </c>
@@ -7998,7 +8021,7 @@
       </c>
       <c r="M192" s="12"/>
     </row>
-    <row r="193" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -8029,7 +8052,7 @@
       </c>
       <c r="M193" s="16"/>
     </row>
-    <row r="194" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -8058,7 +8081,7 @@
       </c>
       <c r="M194" s="16"/>
     </row>
-    <row r="195" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -8087,7 +8110,7 @@
       </c>
       <c r="M195" s="16"/>
     </row>
-    <row r="196" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>195</v>
       </c>
@@ -8116,7 +8139,7 @@
       </c>
       <c r="M196" s="16"/>
     </row>
-    <row r="197" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -8145,7 +8168,7 @@
       </c>
       <c r="M197" s="16"/>
     </row>
-    <row r="198" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>197</v>
       </c>
@@ -8172,7 +8195,7 @@
       <c r="L198" s="15"/>
       <c r="M198" s="16"/>
     </row>
-    <row r="199" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -8203,7 +8226,7 @@
       </c>
       <c r="M199" s="16"/>
     </row>
-    <row r="200" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>199</v>
       </c>
@@ -8232,7 +8255,7 @@
       </c>
       <c r="M200" s="16"/>
     </row>
-    <row r="201" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -8261,7 +8284,7 @@
       </c>
       <c r="M201" s="16"/>
     </row>
-    <row r="202" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>201</v>
       </c>
@@ -8290,7 +8313,7 @@
       </c>
       <c r="M202" s="16"/>
     </row>
-    <row r="203" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>202</v>
       </c>
@@ -8319,7 +8342,7 @@
       </c>
       <c r="M203" s="16"/>
     </row>
-    <row r="204" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>203</v>
       </c>
@@ -8348,7 +8371,7 @@
       </c>
       <c r="M204" s="16"/>
     </row>
-    <row r="205" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>204</v>
       </c>
@@ -8377,7 +8400,7 @@
       </c>
       <c r="M205" s="16"/>
     </row>
-    <row r="206" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>205</v>
       </c>
@@ -8406,7 +8429,7 @@
       </c>
       <c r="M206" s="16"/>
     </row>
-    <row r="207" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>206</v>
       </c>
@@ -8435,7 +8458,7 @@
       </c>
       <c r="M207" s="16"/>
     </row>
-    <row r="208" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>207</v>
       </c>
@@ -8464,7 +8487,7 @@
       </c>
       <c r="M208" s="12"/>
     </row>
-    <row r="209" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>208</v>
       </c>
@@ -8493,7 +8516,7 @@
       </c>
       <c r="M209" s="12"/>
     </row>
-    <row r="210" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>209</v>
       </c>
@@ -8520,7 +8543,7 @@
       <c r="L210" s="8"/>
       <c r="M210" s="12"/>
     </row>
-    <row r="211" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>210</v>
       </c>
@@ -8547,7 +8570,7 @@
       <c r="L211" s="8"/>
       <c r="M211" s="12"/>
     </row>
-    <row r="212" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>211</v>
       </c>
@@ -8576,7 +8599,7 @@
       </c>
       <c r="M212" s="12"/>
     </row>
-    <row r="213" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>212</v>
       </c>
@@ -8605,7 +8628,7 @@
       </c>
       <c r="M213" s="12"/>
     </row>
-    <row r="214" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>213</v>
       </c>
@@ -8634,7 +8657,7 @@
       </c>
       <c r="M214" s="12"/>
     </row>
-    <row r="215" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>214</v>
       </c>
@@ -8665,7 +8688,7 @@
       </c>
       <c r="M215" s="12"/>
     </row>
-    <row r="216" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>215</v>
       </c>
@@ -8694,7 +8717,7 @@
       </c>
       <c r="M216" s="12"/>
     </row>
-    <row r="217" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>216</v>
       </c>
@@ -8723,7 +8746,7 @@
       </c>
       <c r="M217" s="12"/>
     </row>
-    <row r="218" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>217</v>
       </c>
@@ -8752,7 +8775,7 @@
       </c>
       <c r="M218" s="12"/>
     </row>
-    <row r="219" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -8781,7 +8804,7 @@
       </c>
       <c r="M219" s="12"/>
     </row>
-    <row r="220" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>219</v>
       </c>
@@ -8810,7 +8833,7 @@
       </c>
       <c r="M220" s="12"/>
     </row>
-    <row r="221" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>220</v>
       </c>
@@ -8839,7 +8862,7 @@
       </c>
       <c r="M221" s="12"/>
     </row>
-    <row r="222" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>221</v>
       </c>
@@ -8868,7 +8891,7 @@
       </c>
       <c r="M222" s="12"/>
     </row>
-    <row r="223" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -8897,7 +8920,7 @@
       </c>
       <c r="M223" s="12"/>
     </row>
-    <row r="224" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>223</v>
       </c>
@@ -8926,7 +8949,7 @@
       </c>
       <c r="M224" s="11"/>
     </row>
-    <row r="225" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>224</v>
       </c>
@@ -8957,7 +8980,7 @@
       </c>
       <c r="M225" s="11"/>
     </row>
-    <row r="226" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>225</v>
       </c>
@@ -8986,7 +9009,7 @@
       </c>
       <c r="M226" s="12"/>
     </row>
-    <row r="227" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>226</v>
       </c>
@@ -9017,7 +9040,7 @@
       </c>
       <c r="M227" s="12"/>
     </row>
-    <row r="228" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>227</v>
       </c>
@@ -9042,7 +9065,7 @@
       <c r="L228" s="12"/>
       <c r="M228" s="12"/>
     </row>
-    <row r="229" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>228</v>
       </c>
@@ -9067,7 +9090,7 @@
       <c r="L229" s="12"/>
       <c r="M229" s="12"/>
     </row>
-    <row r="230" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>229</v>
       </c>
@@ -9092,7 +9115,7 @@
       <c r="L230" s="12"/>
       <c r="M230" s="12"/>
     </row>
-    <row r="231" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>230</v>
       </c>
@@ -9117,7 +9140,7 @@
       <c r="L231" s="12"/>
       <c r="M231" s="12"/>
     </row>
-    <row r="232" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>231</v>
       </c>
@@ -9142,7 +9165,7 @@
       <c r="L232" s="12"/>
       <c r="M232" s="12"/>
     </row>
-    <row r="233" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>232</v>
       </c>
@@ -9173,7 +9196,7 @@
       </c>
       <c r="M233" s="11"/>
     </row>
-    <row r="234" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>233</v>
       </c>
@@ -9204,7 +9227,7 @@
       </c>
       <c r="M234" s="11"/>
     </row>
-    <row r="235" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>234</v>
       </c>
@@ -9233,7 +9256,7 @@
       </c>
       <c r="M235" s="11"/>
     </row>
-    <row r="236" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>235</v>
       </c>
@@ -9264,7 +9287,7 @@
       </c>
       <c r="M236" s="11"/>
     </row>
-    <row r="237" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>236</v>
       </c>
@@ -9295,7 +9318,7 @@
       </c>
       <c r="M237" s="11"/>
     </row>
-    <row r="238" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>237</v>
       </c>
@@ -9326,7 +9349,7 @@
       </c>
       <c r="M238" s="11"/>
     </row>
-    <row r="239" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>238</v>
       </c>
@@ -9362,7 +9385,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="4"/>
-      <c r="C240" s="4" t="s">
+      <c r="C240" s="28" t="s">
         <v>513</v>
       </c>
       <c r="D240" s="4"/>
@@ -9391,7 +9414,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="4"/>
-      <c r="C241" s="4" t="s">
+      <c r="C241" s="28" t="s">
         <v>516</v>
       </c>
       <c r="D241" s="4"/>
@@ -9420,7 +9443,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="4"/>
-      <c r="C242" s="4" t="s">
+      <c r="C242" s="28" t="s">
         <v>518</v>
       </c>
       <c r="D242" s="4"/>
@@ -9445,7 +9468,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="4"/>
-      <c r="C243" s="4" t="s">
+      <c r="C243" s="28" t="s">
         <v>521</v>
       </c>
       <c r="D243" s="4"/>
@@ -9474,7 +9497,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="4"/>
-      <c r="C244" s="4" t="s">
+      <c r="C244" s="28" t="s">
         <v>523</v>
       </c>
       <c r="D244" s="4"/>
@@ -9498,7 +9521,7 @@
       </c>
       <c r="M244" s="6"/>
     </row>
-    <row r="245" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>244</v>
       </c>
@@ -9532,7 +9555,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="4"/>
-      <c r="C246" s="8" t="s">
+      <c r="C246" s="29" t="s">
         <v>527</v>
       </c>
       <c r="D246" s="8"/>
@@ -9561,7 +9584,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="4"/>
-      <c r="C247" s="8" t="s">
+      <c r="C247" s="29" t="s">
         <v>529</v>
       </c>
       <c r="D247" s="8"/>
@@ -9590,7 +9613,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="4"/>
-      <c r="C248" s="8" t="s">
+      <c r="C248" s="29" t="s">
         <v>530</v>
       </c>
       <c r="D248" s="8"/>
@@ -9619,7 +9642,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="4"/>
-      <c r="C249" s="8" t="s">
+      <c r="C249" s="29" t="s">
         <v>531</v>
       </c>
       <c r="D249" s="8"/>
@@ -9648,7 +9671,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="4"/>
-      <c r="C250" s="8" t="s">
+      <c r="C250" s="29" t="s">
         <v>532</v>
       </c>
       <c r="D250" s="8"/>
@@ -9679,7 +9702,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="4"/>
-      <c r="C251" s="8" t="s">
+      <c r="C251" s="29" t="s">
         <v>533</v>
       </c>
       <c r="D251" s="8"/>
@@ -9708,7 +9731,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="4"/>
-      <c r="C252" s="8" t="s">
+      <c r="C252" s="29" t="s">
         <v>534</v>
       </c>
       <c r="D252" s="8"/>
@@ -9737,7 +9760,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="4"/>
-      <c r="C253" s="8" t="s">
+      <c r="C253" s="29" t="s">
         <v>536</v>
       </c>
       <c r="D253" s="8"/>
@@ -9766,7 +9789,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="4"/>
-      <c r="C254" s="4" t="s">
+      <c r="C254" s="28" t="s">
         <v>537</v>
       </c>
       <c r="D254" s="4"/>
@@ -9795,7 +9818,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="4"/>
-      <c r="C255" s="4" t="s">
+      <c r="C255" s="28" t="s">
         <v>540</v>
       </c>
       <c r="D255" s="4"/>
@@ -9824,7 +9847,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="4"/>
-      <c r="C256" s="8" t="s">
+      <c r="C256" s="29" t="s">
         <v>541</v>
       </c>
       <c r="D256" s="8"/>
@@ -9853,7 +9876,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="4"/>
-      <c r="C257" s="8" t="s">
+      <c r="C257" s="29" t="s">
         <v>544</v>
       </c>
       <c r="D257" s="8"/>
@@ -9882,7 +9905,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="4"/>
-      <c r="C258" s="8" t="s">
+      <c r="C258" s="29" t="s">
         <v>545</v>
       </c>
       <c r="D258" s="8"/>
@@ -9911,7 +9934,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="4"/>
-      <c r="C259" s="8" t="s">
+      <c r="C259" s="29" t="s">
         <v>546</v>
       </c>
       <c r="D259" s="8"/>
@@ -9940,7 +9963,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="4"/>
-      <c r="C260" s="8" t="s">
+      <c r="C260" s="29" t="s">
         <v>547</v>
       </c>
       <c r="D260" s="8"/>
@@ -9969,7 +9992,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="4"/>
-      <c r="C261" s="8" t="s">
+      <c r="C261" s="29" t="s">
         <v>548</v>
       </c>
       <c r="D261" s="8"/>
@@ -9998,7 +10021,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="4"/>
-      <c r="C262" s="8" t="s">
+      <c r="C262" s="29" t="s">
         <v>549</v>
       </c>
       <c r="D262" s="8"/>
@@ -10027,7 +10050,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="4"/>
-      <c r="C263" s="8" t="s">
+      <c r="C263" s="29" t="s">
         <v>551</v>
       </c>
       <c r="D263" s="8"/>
@@ -10056,7 +10079,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="4"/>
-      <c r="C264" s="8" t="s">
+      <c r="C264" s="29" t="s">
         <v>552</v>
       </c>
       <c r="D264" s="8"/>
@@ -10085,7 +10108,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="4"/>
-      <c r="C265" s="8" t="s">
+      <c r="C265" s="29" t="s">
         <v>553</v>
       </c>
       <c r="D265" s="8"/>
@@ -10114,7 +10137,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="4"/>
-      <c r="C266" s="8" t="s">
+      <c r="C266" s="29" t="s">
         <v>554</v>
       </c>
       <c r="D266" s="8"/>
@@ -10143,7 +10166,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="4"/>
-      <c r="C267" s="8" t="s">
+      <c r="C267" s="29" t="s">
         <v>555</v>
       </c>
       <c r="D267" s="8"/>
@@ -10172,7 +10195,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="4"/>
-      <c r="C268" s="8" t="s">
+      <c r="C268" s="29" t="s">
         <v>556</v>
       </c>
       <c r="D268" s="8"/>
@@ -10201,7 +10224,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="4"/>
-      <c r="C269" s="8" t="s">
+      <c r="C269" s="29" t="s">
         <v>557</v>
       </c>
       <c r="D269" s="8"/>
@@ -10230,7 +10253,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="4"/>
-      <c r="C270" s="4" t="s">
+      <c r="C270" s="28" t="s">
         <v>559</v>
       </c>
       <c r="D270" s="4"/>
@@ -10259,7 +10282,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="4"/>
-      <c r="C271" s="8" t="s">
+      <c r="C271" s="29" t="s">
         <v>561</v>
       </c>
       <c r="D271" s="8"/>
@@ -10288,7 +10311,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="4"/>
-      <c r="C272" s="8" t="s">
+      <c r="C272" s="29" t="s">
         <v>563</v>
       </c>
       <c r="D272" s="8"/>
@@ -10315,7 +10338,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="4"/>
-      <c r="C273" s="4" t="s">
+      <c r="C273" s="28" t="s">
         <v>565</v>
       </c>
       <c r="D273" s="4"/>
@@ -10344,7 +10367,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="4"/>
-      <c r="C274" s="4" t="s">
+      <c r="C274" s="28" t="s">
         <v>567</v>
       </c>
       <c r="D274" s="4"/>
@@ -10366,7 +10389,7 @@
       </c>
       <c r="M274" s="6"/>
     </row>
-    <row r="275" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>274</v>
       </c>
@@ -10391,7 +10414,7 @@
       <c r="L275" s="12"/>
       <c r="M275" s="12"/>
     </row>
-    <row r="276" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>275</v>
       </c>
@@ -10420,7 +10443,7 @@
       </c>
       <c r="M276" s="6"/>
     </row>
-    <row r="277" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>276</v>
       </c>
@@ -10451,7 +10474,7 @@
       </c>
       <c r="M277" s="6"/>
     </row>
-    <row r="278" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>277</v>
       </c>
@@ -10480,7 +10503,7 @@
       </c>
       <c r="M278" s="12"/>
     </row>
-    <row r="279" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>278</v>
       </c>
@@ -10509,7 +10532,7 @@
       </c>
       <c r="M279" s="12"/>
     </row>
-    <row r="280" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>279</v>
       </c>
@@ -10538,31 +10561,31 @@
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J281" s="20"/>
+      <c r="J281" s="23"/>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J282" s="21"/>
+      <c r="J282" s="24"/>
     </row>
     <row r="283" spans="1:13" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C283" s="22" t="s">
+      <c r="C283" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="D283" s="22"/>
-      <c r="E283" s="22" t="s">
+      <c r="D283" s="20"/>
+      <c r="E283" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="F283" s="22"/>
-      <c r="G283" s="23" t="s">
+      <c r="F283" s="20"/>
+      <c r="G283" s="21" t="s">
         <v>578</v>
       </c>
-      <c r="J283" s="21"/>
+      <c r="J283" s="24"/>
     </row>
     <row r="284" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="C284" s="24"/>
-      <c r="D284" s="24"/>
-      <c r="E284" s="24"/>
-      <c r="F284" s="24"/>
-      <c r="G284" s="24"/>
+      <c r="C284" s="22"/>
+      <c r="D284" s="22"/>
+      <c r="E284" s="22"/>
+      <c r="F284" s="22"/>
+      <c r="G284" s="22"/>
     </row>
     <row r="285" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E285" s="25" t="s">
@@ -10608,7 +10631,11 @@
       <c r="H295" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M280" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:M280" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="2">
+      <colorFilter dxfId="0" cellColor="0"/>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="J281:J283"/>
     <mergeCell ref="E285:G287"/>
